--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H2">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I2">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J2">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>0.4174057391085599</v>
+        <v>0.653101672195</v>
       </c>
       <c r="R2">
-        <v>0.4174057391085599</v>
+        <v>5.877915049755</v>
       </c>
       <c r="S2">
-        <v>0.01979422494836266</v>
+        <v>0.02215843570527719</v>
       </c>
       <c r="T2">
-        <v>0.01979422494836266</v>
+        <v>0.02622432188626814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H3">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I3">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J3">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>2.60469754369849</v>
+        <v>2.943206402955</v>
       </c>
       <c r="R3">
-        <v>2.60469754369849</v>
+        <v>26.488857626595</v>
       </c>
       <c r="S3">
-        <v>0.1235200292466661</v>
+        <v>0.09985711662328495</v>
       </c>
       <c r="T3">
-        <v>0.1235200292466661</v>
+        <v>0.1181800558394103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H4">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I4">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J4">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>0.3124208923716554</v>
+        <v>0.3638350489200001</v>
       </c>
       <c r="R4">
-        <v>0.3124208923716554</v>
+        <v>3.274515440280001</v>
       </c>
       <c r="S4">
-        <v>0.01481563103415874</v>
+        <v>0.01234419674922083</v>
       </c>
       <c r="T4">
-        <v>0.01481563103415874</v>
+        <v>0.01460925280487629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H5">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I5">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J5">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>0.4401376804179394</v>
+        <v>0.6603557270100001</v>
       </c>
       <c r="R5">
-        <v>0.4401376804179394</v>
+        <v>5.94320154309</v>
       </c>
       <c r="S5">
-        <v>0.02087221961310254</v>
+        <v>0.0224045513011545</v>
       </c>
       <c r="T5">
-        <v>0.02087221961310254</v>
+        <v>0.02651559761950864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.312130710646087</v>
+        <v>0.340305</v>
       </c>
       <c r="H6">
-        <v>0.312130710646087</v>
+        <v>1.020915</v>
       </c>
       <c r="I6">
-        <v>0.2804211828070108</v>
+        <v>0.2413792532744959</v>
       </c>
       <c r="J6">
-        <v>0.2804211828070108</v>
+        <v>0.2522899505114672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>2.138649293316969</v>
+        <v>2.493956160255</v>
       </c>
       <c r="R6">
-        <v>2.138649293316969</v>
+        <v>14.96373696153</v>
       </c>
       <c r="S6">
-        <v>0.1014190779647207</v>
+        <v>0.08461495289555848</v>
       </c>
       <c r="T6">
-        <v>0.1014190779647207</v>
+        <v>0.06676072236140382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H7">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I7">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J7">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>0.5589339484536939</v>
+        <v>0.9077308153513333</v>
       </c>
       <c r="R7">
-        <v>0.5589339484536939</v>
+        <v>8.169577338162</v>
       </c>
       <c r="S7">
-        <v>0.02650577907864246</v>
+        <v>0.03079749412072528</v>
       </c>
       <c r="T7">
-        <v>0.02650577907864246</v>
+        <v>0.03644857470331284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H8">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I8">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J8">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>3.487862638727143</v>
+        <v>4.090694085842</v>
       </c>
       <c r="R8">
-        <v>3.487862638727143</v>
+        <v>36.816246772578</v>
       </c>
       <c r="S8">
-        <v>0.1654015055169112</v>
+        <v>0.1387890825427618</v>
       </c>
       <c r="T8">
-        <v>0.1654015055169112</v>
+        <v>0.1642557093520106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H9">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I9">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J9">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>0.4183522807464313</v>
+        <v>0.505685867408</v>
       </c>
       <c r="R9">
-        <v>0.4183522807464313</v>
+        <v>4.551172806672001</v>
       </c>
       <c r="S9">
-        <v>0.01983911186856417</v>
+        <v>0.01715691179042319</v>
       </c>
       <c r="T9">
-        <v>0.01983911186856417</v>
+        <v>0.02030506049031309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H10">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I10">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J10">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>0.589373524438452</v>
+        <v>0.9178130573240001</v>
       </c>
       <c r="R10">
-        <v>0.589373524438452</v>
+        <v>8.260317515916</v>
       </c>
       <c r="S10">
-        <v>0.02794928537939884</v>
+        <v>0.03113956445988938</v>
       </c>
       <c r="T10">
-        <v>0.02794928537939884</v>
+        <v>0.03685341206644167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.417963708183947</v>
+        <v>0.472982</v>
       </c>
       <c r="H11">
-        <v>0.417963708183947</v>
+        <v>1.418946</v>
       </c>
       <c r="I11">
-        <v>0.3755025488416036</v>
+        <v>0.3354874068035369</v>
       </c>
       <c r="J11">
-        <v>0.3755025488416036</v>
+        <v>0.3506519309819567</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N11">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O11">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P11">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q11">
-        <v>2.863793143870651</v>
+        <v>3.466291628362</v>
       </c>
       <c r="R11">
-        <v>2.863793143870651</v>
+        <v>20.797749770172</v>
       </c>
       <c r="S11">
-        <v>0.135806866998087</v>
+        <v>0.1176043538897373</v>
       </c>
       <c r="T11">
-        <v>0.135806866998087</v>
+        <v>0.09278917436987849</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H12">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I12">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J12">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N12">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O12">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P12">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q12">
-        <v>0.2914579266213455</v>
+        <v>0.7938366494192222</v>
       </c>
       <c r="R12">
-        <v>0.2914579266213455</v>
+        <v>7.144529844773</v>
       </c>
       <c r="S12">
-        <v>0.01382152477071195</v>
+        <v>0.02693329248037282</v>
       </c>
       <c r="T12">
-        <v>0.01382152477071195</v>
+        <v>0.03187532463287062</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H13">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I13">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J13">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N13">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P13">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q13">
-        <v>1.818757325146958</v>
+        <v>3.577429378826333</v>
       </c>
       <c r="R13">
-        <v>1.818757325146958</v>
+        <v>32.196864409437</v>
       </c>
       <c r="S13">
-        <v>0.08624915339527245</v>
+        <v>0.1213750358569361</v>
       </c>
       <c r="T13">
-        <v>0.08624915339527245</v>
+        <v>0.1436463318803493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H14">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I14">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J14">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N14">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O14">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P14">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q14">
-        <v>0.2181511584347209</v>
+        <v>0.4422368039653334</v>
       </c>
       <c r="R14">
-        <v>0.2181511584347209</v>
+        <v>3.980131235688</v>
       </c>
       <c r="S14">
-        <v>0.01034516945556347</v>
+        <v>0.01500421175502257</v>
       </c>
       <c r="T14">
-        <v>0.01034516945556347</v>
+        <v>0.01775735814327953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H15">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I15">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J15">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N15">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O15">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P15">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q15">
-        <v>0.3073307425923465</v>
+        <v>0.8026538593793333</v>
       </c>
       <c r="R15">
-        <v>0.3073307425923465</v>
+        <v>7.223884734414</v>
       </c>
       <c r="S15">
-        <v>0.01457424582951906</v>
+        <v>0.0272324428092097</v>
       </c>
       <c r="T15">
-        <v>0.01457424582951906</v>
+        <v>0.03222936652554508</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2179485360073</v>
+        <v>0.4136363333333333</v>
       </c>
       <c r="H16">
-        <v>0.2179485360073</v>
+        <v>1.240909</v>
       </c>
       <c r="I16">
-        <v>0.1958070262670247</v>
+        <v>0.2933933655608953</v>
       </c>
       <c r="J16">
-        <v>0.1958070262670247</v>
+        <v>0.3066551771687498</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N16">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O16">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P16">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q16">
-        <v>1.4933342558528</v>
+        <v>3.031371509739667</v>
       </c>
       <c r="R16">
-        <v>1.4933342558528</v>
+        <v>18.188229058438</v>
       </c>
       <c r="S16">
-        <v>0.07081693281595779</v>
+        <v>0.1028483826593542</v>
       </c>
       <c r="T16">
-        <v>0.07081693281595779</v>
+        <v>0.08114679598670532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H17">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I17">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J17">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N17">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O17">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P17">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q17">
-        <v>0.2206981368518118</v>
+        <v>0.3510384304213334</v>
       </c>
       <c r="R17">
-        <v>0.2206981368518118</v>
+        <v>2.106230582528</v>
       </c>
       <c r="S17">
-        <v>0.01046595232700695</v>
+        <v>0.01191003303425945</v>
       </c>
       <c r="T17">
-        <v>0.01046595232700695</v>
+        <v>0.009396949138490625</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H18">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I18">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J18">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N18">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P18">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q18">
-        <v>1.377201703513805</v>
+        <v>1.581956684672</v>
       </c>
       <c r="R18">
-        <v>1.377201703513805</v>
+        <v>9.491740108032001</v>
       </c>
       <c r="S18">
-        <v>0.06530969213993125</v>
+        <v>0.0536726316563033</v>
       </c>
       <c r="T18">
-        <v>0.06530969213993125</v>
+        <v>0.04234740477649602</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H19">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I19">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J19">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N19">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O19">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P19">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q19">
-        <v>0.1651886938767555</v>
+        <v>0.195559267328</v>
       </c>
       <c r="R19">
-        <v>0.1651886938767555</v>
+        <v>1.173355603968</v>
       </c>
       <c r="S19">
-        <v>0.007833582193924516</v>
+        <v>0.006634935471983895</v>
       </c>
       <c r="T19">
-        <v>0.007833582193924516</v>
+        <v>0.005234926803985702</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H20">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I20">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J20">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N20">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O20">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P20">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q20">
-        <v>0.2327173704749987</v>
+        <v>0.354937443584</v>
       </c>
       <c r="R20">
-        <v>0.2327173704749987</v>
+        <v>2.129624661504</v>
       </c>
       <c r="S20">
-        <v>0.0110359287115013</v>
+        <v>0.01204231876580353</v>
       </c>
       <c r="T20">
-        <v>0.0110359287115013</v>
+        <v>0.009501321837331343</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.165035263868059</v>
+        <v>0.182912</v>
       </c>
       <c r="H21">
-        <v>0.165035263868059</v>
+        <v>0.365824</v>
       </c>
       <c r="I21">
-        <v>0.1482692420843608</v>
+        <v>0.129739974361072</v>
       </c>
       <c r="J21">
-        <v>0.1482692420843608</v>
+        <v>0.09040294133782634</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N21">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O21">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P21">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q21">
-        <v>1.130784438715494</v>
+        <v>1.340487236992</v>
       </c>
       <c r="R21">
-        <v>1.130784438715494</v>
+        <v>5.361948947968</v>
       </c>
       <c r="S21">
-        <v>0.05362408671199674</v>
+        <v>0.0454800554327218</v>
       </c>
       <c r="T21">
-        <v>0.05362408671199674</v>
+        <v>0.02392233878152265</v>
       </c>
     </row>
   </sheetData>
